--- a/output/ValueSet-social-history-goal-vs.xlsx
+++ b/output/ValueSet-social-history-goal-vs.xlsx
@@ -118,10 +118,16 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>8708-0</t>
-  </si>
-  <si>
-    <t>Menstrual cycle length</t>
+    <t>8665-2</t>
+  </si>
+  <si>
+    <t>Date last menstrual period</t>
+  </si>
+  <si>
+    <t>49033-4</t>
+  </si>
+  <si>
+    <t>Menstrual cycle duration</t>
   </si>
   <si>
     <t>55284-4</t>
@@ -155,12 +161,6 @@
   </si>
   <si>
     <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>405191000</t>
-  </si>
-  <si>
-    <t>Menstrual cycle monitoring</t>
   </si>
   <si>
     <t>289530006</t>
@@ -476,7 +476,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -539,15 +539,23 @@
         <v>44</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +565,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -577,33 +585,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>51</v>
       </c>
     </row>
